--- a/Scrum Documentation/Scrum Activities/Scrum Activities.xlsx
+++ b/Scrum Documentation/Scrum Activities/Scrum Activities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56E14B56-AC2E-4D10-B13A-41E7C4FF3CEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F173B953-E8C1-4C2F-8FF5-42F0F32BDFA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Scrum Activity</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Unfortunately this is all the proof we have. The proof of scrum plannings are the sprint backlogs, and the proof of sprint retrospectives are the retrospective notes in the excel file. We had regular scrum meetings every week after the Development practicums (to know what to do in the weekend), and before the Project lessons (to know what we will be doing in and after the lessons. There were also many unplanned meetings</t>
+  </si>
+  <si>
+    <t>15/11/2018</t>
+  </si>
+  <si>
+    <t>Proof/SCRUMDAILY15-11-18.jpg</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,33 +533,33 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
-        <v>43112</v>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>43202</v>
+        <v>43112</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3">
-        <v>43324</v>
+        <v>43202</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,32 +589,32 @@
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>43446</v>
+        <v>43324</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
+      <c r="B14" s="3">
+        <v>43446</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
-        <v>43678</v>
+      <c r="B15" t="s">
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,15 +622,26 @@
         <v>3</v>
       </c>
       <c r="B16" s="3">
+        <v>43678</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
         <v>43739</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="E18" s="4" t="s">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
